--- a/data/trans_orig/P19C09-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Dificultad-trans_orig.xlsx
@@ -746,16 +746,16 @@
         <v>7563</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23194</v>
+        <v>24314</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03500238086585149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01918537205240854</v>
+        <v>0.01918660667770118</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05884118394276939</v>
+        <v>0.06168157269666503</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -764,19 +764,19 @@
         <v>21808</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13405</v>
+        <v>14398</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31703</v>
+        <v>33010</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02991651472496995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01838964889289511</v>
+        <v>0.01975092979204308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04349042812267755</v>
+        <v>0.04528315903031794</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -785,19 +785,19 @@
         <v>35605</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24682</v>
+        <v>24104</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49001</v>
+        <v>48961</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03170148909580891</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02197537842265697</v>
+        <v>0.02146067681767045</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0436286743252423</v>
+        <v>0.04359234643270143</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>380390</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>370994</v>
+        <v>369874</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>386625</v>
@@ -823,10 +823,10 @@
         <v>0.9649976191341485</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9411588160572306</v>
+        <v>0.938318427303335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9808146279475914</v>
+        <v>0.9808133933222989</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>679</v>
@@ -835,19 +835,19 @@
         <v>707151</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>697256</v>
+        <v>695949</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>715554</v>
+        <v>714561</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9700834852750301</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9565095718773226</v>
+        <v>0.9547168409696823</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9816103511071049</v>
+        <v>0.9802490702079569</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1058</v>
@@ -856,19 +856,19 @@
         <v>1087543</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1074147</v>
+        <v>1074187</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1098466</v>
+        <v>1099044</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9682985109041911</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9563713256747576</v>
+        <v>0.9564076535672982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9780246215773429</v>
+        <v>0.9785393231823295</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>15458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9038</v>
+        <v>8955</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24304</v>
+        <v>25357</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01937987324398953</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01133120953079786</v>
+        <v>0.01122718708609392</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03047013687644363</v>
+        <v>0.03179002464322302</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -981,19 +981,19 @@
         <v>17329</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10394</v>
+        <v>10742</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27209</v>
+        <v>26855</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02038781916539705</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01222920898280595</v>
+        <v>0.0126386214011303</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03201285210567947</v>
+        <v>0.03159662913182597</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -1002,19 +1002,19 @@
         <v>32787</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23522</v>
+        <v>22720</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45783</v>
+        <v>44510</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01989984501530423</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01427671771548453</v>
+        <v>0.0137898169056778</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02778790549526559</v>
+        <v>0.02701531923210367</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>782183</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>773337</v>
+        <v>772284</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>788603</v>
+        <v>788686</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9806201267560105</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9695298631235564</v>
+        <v>0.968209975356777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9886687904692022</v>
+        <v>0.9887728129139062</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>810</v>
@@ -1052,19 +1052,19 @@
         <v>832615</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>822735</v>
+        <v>823089</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>839550</v>
+        <v>839202</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.979612180834603</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9679871478943203</v>
+        <v>0.9684033708681747</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.987770791017194</v>
+        <v>0.9873613785988699</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1573</v>
@@ -1073,19 +1073,19 @@
         <v>1614798</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1601802</v>
+        <v>1603075</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1624063</v>
+        <v>1624865</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9801001549846958</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9722120945047343</v>
+        <v>0.9729846807678961</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9857232822845154</v>
+        <v>0.9862101830943222</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>17101</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10606</v>
+        <v>10368</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28366</v>
+        <v>27610</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01920336034798075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01191035658125067</v>
+        <v>0.01164323043422472</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03185424132904051</v>
+        <v>0.03100481033818462</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -1198,19 +1198,19 @@
         <v>32153</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22882</v>
+        <v>22295</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45292</v>
+        <v>44516</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03880346208706719</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02761499883990734</v>
+        <v>0.02690679633122152</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05466090346792698</v>
+        <v>0.05372418702882636</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -1219,19 +1219,19 @@
         <v>49253</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36973</v>
+        <v>36733</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65271</v>
+        <v>65288</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02865057201330056</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02150711056455286</v>
+        <v>0.02136750349197953</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03796816415709262</v>
+        <v>0.03797792563820884</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>873400</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>862135</v>
+        <v>862891</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>879895</v>
+        <v>880133</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9807966396520192</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9681457586709595</v>
+        <v>0.9689951896618155</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9880896434187494</v>
+        <v>0.9883567695657755</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>790</v>
@@ -1269,19 +1269,19 @@
         <v>796454</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>783315</v>
+        <v>784091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>805725</v>
+        <v>806312</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9611965379129328</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9453390965320727</v>
+        <v>0.9462758129711734</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9723850011600926</v>
+        <v>0.9730932036687785</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1646</v>
@@ -1290,19 +1290,19 @@
         <v>1669855</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1653837</v>
+        <v>1653820</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1682135</v>
+        <v>1682375</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9713494279866994</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9620318358429074</v>
+        <v>0.962022074361791</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9784928894354472</v>
+        <v>0.97863249650802</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>15237</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9000</v>
+        <v>8521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25211</v>
+        <v>24700</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04481880979343073</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02647459235341154</v>
+        <v>0.02506442327938133</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07415949966621807</v>
+        <v>0.07265568216748342</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1415,19 +1415,19 @@
         <v>11704</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5620</v>
+        <v>6249</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19655</v>
+        <v>20230</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04216009206553695</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02024332580502568</v>
+        <v>0.0225099360067223</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0708024108574969</v>
+        <v>0.07287335260185464</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1436,19 +1436,19 @@
         <v>26941</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17041</v>
+        <v>16511</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38726</v>
+        <v>38545</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04362368015395587</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02759426314998972</v>
+        <v>0.02673524085543979</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06270747927547907</v>
+        <v>0.06241431489763488</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>324725</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>314751</v>
+        <v>315262</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>330962</v>
+        <v>331441</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9551811902065693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9258405003337817</v>
+        <v>0.9273443178325166</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9735254076465885</v>
+        <v>0.9749355767206187</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>266</v>
@@ -1486,19 +1486,19 @@
         <v>265900</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>257949</v>
+        <v>257374</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>271984</v>
+        <v>271355</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9578399079344631</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9291975891425032</v>
+        <v>0.9271266473981454</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9797566741949744</v>
+        <v>0.9774900639932778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>582</v>
@@ -1507,19 +1507,19 @@
         <v>590625</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>578840</v>
+        <v>579021</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>600525</v>
+        <v>601055</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9563763198460441</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9372925207245207</v>
+        <v>0.9375856851023643</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9724057368500099</v>
+        <v>0.9732647591445601</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>61593</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47253</v>
+        <v>46672</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79877</v>
+        <v>78439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0254275731977351</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01950742020465923</v>
+        <v>0.01926759946378458</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03297595386531972</v>
+        <v>0.03238200331185576</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>80</v>
@@ -1632,19 +1632,19 @@
         <v>82993</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67304</v>
+        <v>65738</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>102334</v>
+        <v>100576</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03090857671084856</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02506564634727584</v>
+        <v>0.02448238374305743</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03811153530042077</v>
+        <v>0.03745685451127584</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>140</v>
@@ -1653,19 +1653,19 @@
         <v>144586</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>122001</v>
+        <v>122875</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>170948</v>
+        <v>170748</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02830909840910279</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02388711003634808</v>
+        <v>0.02405814098434459</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03347068562498944</v>
+        <v>0.03343152153114975</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>2360699</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2342415</v>
+        <v>2343853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2375039</v>
+        <v>2375620</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9745724268022649</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9670240461346802</v>
+        <v>0.9676179966881443</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9804925797953403</v>
+        <v>0.9807324005362155</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2545</v>
@@ -1703,19 +1703,19 @@
         <v>2602121</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2582780</v>
+        <v>2584538</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2617810</v>
+        <v>2619376</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9690914232891514</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9618884646995792</v>
+        <v>0.9625431454887243</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9749343536527243</v>
+        <v>0.9755176162569426</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4859</v>
@@ -1724,19 +1724,19 @@
         <v>4962821</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4936459</v>
+        <v>4936659</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4985406</v>
+        <v>4984532</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9716909015908972</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9665293143750103</v>
+        <v>0.9665684784688501</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9761128899636519</v>
+        <v>0.9759418590156551</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>7950</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3866</v>
+        <v>3307</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14814</v>
+        <v>15597</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009805340848039752</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004768492120465623</v>
+        <v>0.004078205917522544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01827064916658683</v>
+        <v>0.01923679192902057</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2089,19 +2089,19 @@
         <v>29804</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19377</v>
+        <v>19758</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42795</v>
+        <v>44203</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03242566952249346</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02108138464034143</v>
+        <v>0.02149594842458513</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04656029734746252</v>
+        <v>0.04809237562352184</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -2110,19 +2110,19 @@
         <v>37754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26775</v>
+        <v>26152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53272</v>
+        <v>52076</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02182390143223267</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01547746721361262</v>
+        <v>0.01511728215888856</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03079442735466827</v>
+        <v>0.03010317718678937</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>802833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>795969</v>
+        <v>795186</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>806917</v>
+        <v>807476</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9901946591519603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9817293508334132</v>
+        <v>0.9807632080709794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9952315078795344</v>
+        <v>0.9959217940824785</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>823</v>
@@ -2160,19 +2160,19 @@
         <v>889330</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>876339</v>
+        <v>874931</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>899757</v>
+        <v>899376</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9675743304775065</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9534397026525375</v>
+        <v>0.9519076243764782</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9789186153596586</v>
+        <v>0.9785040515754149</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1575</v>
@@ -2181,19 +2181,19 @@
         <v>1692164</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1676646</v>
+        <v>1677842</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1703143</v>
+        <v>1703766</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9781760985677673</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9692055726453317</v>
+        <v>0.9698968228132107</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9845225327863873</v>
+        <v>0.9848827178411114</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>16898</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10082</v>
+        <v>9645</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28524</v>
+        <v>26146</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0207109494045667</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01235710054270048</v>
+        <v>0.01182198869185468</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03496112464928965</v>
+        <v>0.03204647682323618</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -2306,19 +2306,19 @@
         <v>20049</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11516</v>
+        <v>12667</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31448</v>
+        <v>31392</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02138304355949966</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0122819173811466</v>
+        <v>0.01350991024461005</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0335399567643932</v>
+        <v>0.03348001864902676</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -2327,19 +2327,19 @@
         <v>36947</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25477</v>
+        <v>25376</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50212</v>
+        <v>50746</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02107032924719172</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01452943760844453</v>
+        <v>0.01447180152426208</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02863551550195996</v>
+        <v>0.02894006310835561</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>798977</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>787351</v>
+        <v>789729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>805793</v>
+        <v>806230</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9792890505954333</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9650388753507104</v>
+        <v>0.9679535231767639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9876428994572996</v>
+        <v>0.9881780113081453</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>854</v>
@@ -2377,19 +2377,19 @@
         <v>917577</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>906178</v>
+        <v>906234</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>926110</v>
+        <v>924959</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9786169564405004</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9664600432356067</v>
+        <v>0.9665199813509733</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9877180826188534</v>
+        <v>0.9864900897553899</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1619</v>
@@ -2398,19 +2398,19 @@
         <v>1716553</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1703288</v>
+        <v>1702754</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1728023</v>
+        <v>1728124</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9789296707528082</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9713644844980396</v>
+        <v>0.9710599368916443</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9854705623915554</v>
+        <v>0.9855281984757378</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>16062</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9013</v>
+        <v>9014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27118</v>
+        <v>27450</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02123730863810192</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01191744071518557</v>
+        <v>0.01191825143821809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03585690262178796</v>
+        <v>0.0362959440782764</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -2523,19 +2523,19 @@
         <v>25301</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16792</v>
+        <v>17040</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37318</v>
+        <v>36489</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03181940385563253</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02111877248679615</v>
+        <v>0.02143065345052479</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04693284060558408</v>
+        <v>0.04589004181872662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -2544,19 +2544,19 @@
         <v>41363</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29363</v>
+        <v>29144</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55617</v>
+        <v>55577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.026660857320313</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01892663914860577</v>
+        <v>0.01878505914022792</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03584869771439012</v>
+        <v>0.03582265477623659</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>740230</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>729174</v>
+        <v>728842</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>747279</v>
+        <v>747278</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9787626913618981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.964143097378212</v>
+        <v>0.9637040559217231</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9880825592848144</v>
+        <v>0.9880817485617819</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>720</v>
@@ -2594,19 +2594,19 @@
         <v>769843</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>757826</v>
+        <v>758655</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>778352</v>
+        <v>778104</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9681805961443675</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9530671593944159</v>
+        <v>0.9541099581812733</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9788812275132037</v>
+        <v>0.9785693465494751</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1418</v>
@@ -2615,19 +2615,19 @@
         <v>1510074</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1495820</v>
+        <v>1495860</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1522074</v>
+        <v>1522293</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.973339142679687</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9641513022856103</v>
+        <v>0.9641773452237635</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9810733608513943</v>
+        <v>0.9812149408597722</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>7875</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2937</v>
+        <v>3001</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15006</v>
+        <v>15857</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01792886434736138</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006686273356360816</v>
+        <v>0.006832386132064366</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03416291463396134</v>
+        <v>0.03610121883059111</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -2740,19 +2740,19 @@
         <v>11007</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5096</v>
+        <v>5805</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21032</v>
+        <v>19928</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02726169570015543</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01262234217098453</v>
+        <v>0.01437706331033694</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05209262150649129</v>
+        <v>0.04935772275115257</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -2761,19 +2761,19 @@
         <v>18882</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10760</v>
+        <v>11306</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28465</v>
+        <v>30508</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0223987646771958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01276444948395839</v>
+        <v>0.0134112721235538</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03376643190251301</v>
+        <v>0.03618987983996508</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>431375</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>424244</v>
+        <v>423393</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>436313</v>
+        <v>436249</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9820711356526386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9658370853660387</v>
+        <v>0.9638987811694089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9933137266436391</v>
+        <v>0.9931676138679356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>358</v>
@@ -2811,19 +2811,19 @@
         <v>392742</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>382717</v>
+        <v>383821</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>398653</v>
+        <v>397944</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9727383042998445</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9479073784935087</v>
+        <v>0.9506422772488473</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9873776578290154</v>
+        <v>0.9856229366896631</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>756</v>
@@ -2832,19 +2832,19 @@
         <v>824117</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>814534</v>
+        <v>812491</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>832239</v>
+        <v>831693</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9776012353228042</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9662335680974873</v>
+        <v>0.9638101201600349</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9872355505160418</v>
+        <v>0.986588727876446</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>48784</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35874</v>
+        <v>36665</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64919</v>
+        <v>65315</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01728594983899255</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0127113507990726</v>
+        <v>0.01299178551809678</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02300311506019884</v>
+        <v>0.02314314687932649</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -2957,19 +2957,19 @@
         <v>86161</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66872</v>
+        <v>69290</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>104681</v>
+        <v>109074</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02819715752871205</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02188470630865084</v>
+        <v>0.02267590095800399</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03425820561666069</v>
+        <v>0.0356959116585415</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>122</v>
@@ -2978,19 +2978,19 @@
         <v>134945</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>113002</v>
+        <v>113664</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>158994</v>
+        <v>160923</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02295823573836392</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01922511887274318</v>
+        <v>0.01933766767039314</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02704959996532334</v>
+        <v>0.02737779287765753</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>2773416</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2757281</v>
+        <v>2756885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2786326</v>
+        <v>2785535</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9827140501610074</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9769968849398009</v>
+        <v>0.9768568531206738</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9872886492009274</v>
+        <v>0.9870082144819032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2755</v>
@@ -3028,19 +3028,19 @@
         <v>2969492</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2950972</v>
+        <v>2946579</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2988781</v>
+        <v>2986363</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9718028424712879</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9657417943833391</v>
+        <v>0.9643040883414588</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9781152936913492</v>
+        <v>0.9773240990419962</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5368</v>
@@ -3049,19 +3049,19 @@
         <v>5742908</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5718859</v>
+        <v>5716930</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5764851</v>
+        <v>5764189</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.977041764261636</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.972950400034677</v>
+        <v>0.9726222071223426</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9807748811272569</v>
+        <v>0.980662332329607</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>23727</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15400</v>
+        <v>14952</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36471</v>
+        <v>34722</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03024942365092731</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01963397981806247</v>
+        <v>0.01906294628186857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04649799794682327</v>
+        <v>0.04426837338639354</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -3414,19 +3414,19 @@
         <v>25901</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17404</v>
+        <v>17860</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36901</v>
+        <v>37949</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02807049494820242</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01886171425355436</v>
+        <v>0.01935544707360172</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03999203397313591</v>
+        <v>0.04112711231235835</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -3435,19 +3435,19 @@
         <v>49628</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36812</v>
+        <v>36392</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65345</v>
+        <v>66590</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02907166361554625</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02156433864799859</v>
+        <v>0.02131832335440627</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03827887831206932</v>
+        <v>0.03900794785504202</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>760636</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>747892</v>
+        <v>749641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>768963</v>
+        <v>769411</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9697505763490727</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9535020020531769</v>
+        <v>0.9557316266136063</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9803660201819376</v>
+        <v>0.9809370537181314</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>862</v>
@@ -3485,19 +3485,19 @@
         <v>896813</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>885813</v>
+        <v>884765</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>905310</v>
+        <v>904854</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9719295050517975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9600079660268641</v>
+        <v>0.9588728876876417</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9811382857464457</v>
+        <v>0.9806445529263984</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1577</v>
@@ -3506,19 +3506,19 @@
         <v>1657449</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1641732</v>
+        <v>1640487</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1670265</v>
+        <v>1670685</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9709283363844537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9617211216879307</v>
+        <v>0.960992052144958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9784356613520016</v>
+        <v>0.9786816766455937</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>21040</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12677</v>
+        <v>13489</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30107</v>
+        <v>32795</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02945417029770683</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01774661202369055</v>
+        <v>0.01888352008112227</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04214820802586036</v>
+        <v>0.04591053916178277</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -3631,19 +3631,19 @@
         <v>25078</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15352</v>
+        <v>16260</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36737</v>
+        <v>37216</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02976011527102809</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01821835198689263</v>
+        <v>0.01929579956595402</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04359501008142598</v>
+        <v>0.0441635135954757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -3652,19 +3652,19 @@
         <v>46118</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34019</v>
+        <v>34121</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62001</v>
+        <v>61711</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02961975445538989</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02184936740950289</v>
+        <v>0.02191466899279888</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03982058739876138</v>
+        <v>0.03963462632248076</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>693277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>684210</v>
+        <v>681522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>701640</v>
+        <v>700828</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9705458297022932</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9578517919741401</v>
+        <v>0.9540894608382173</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9822533879763096</v>
+        <v>0.9811164799188777</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>775</v>
@@ -3702,19 +3702,19 @@
         <v>817604</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>805945</v>
+        <v>805466</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>827330</v>
+        <v>826422</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9702398847289719</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9564049899185743</v>
+        <v>0.9558364864045251</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9817816480131075</v>
+        <v>0.9807042004340459</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1448</v>
@@ -3723,19 +3723,19 @@
         <v>1510881</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1494998</v>
+        <v>1495288</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1522980</v>
+        <v>1522878</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9703802455446101</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9601794126012382</v>
+        <v>0.9603653736775191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9781506325904971</v>
+        <v>0.978085331007201</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>17112</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10937</v>
+        <v>9829</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28001</v>
+        <v>27158</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02389630821641459</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01527272645384351</v>
+        <v>0.01372541597771444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03910278535480029</v>
+        <v>0.03792587315509947</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3848,19 +3848,19 @@
         <v>10597</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5074</v>
+        <v>4697</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20457</v>
+        <v>17538</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01608181475436728</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007699415231688907</v>
+        <v>0.007127765047422494</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03104357474860257</v>
+        <v>0.02661392335529262</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -3869,19 +3869,19 @@
         <v>27709</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18677</v>
+        <v>18254</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39853</v>
+        <v>39705</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02015137460122234</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01358257840703851</v>
+        <v>0.01327491670312687</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02898247514035255</v>
+        <v>0.02887492972264546</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>698979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>688090</v>
+        <v>688933</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>705154</v>
+        <v>706262</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9761036917835854</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9608972146451997</v>
+        <v>0.9620741268449006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9847272735461564</v>
+        <v>0.9862745840222855</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>618</v>
@@ -3919,19 +3919,19 @@
         <v>648372</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638512</v>
+        <v>641431</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>653895</v>
+        <v>654272</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9839181852456327</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.968956425251397</v>
+        <v>0.9733860766447072</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9923005847683111</v>
+        <v>0.9928722349525773</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1284</v>
@@ -3940,19 +3940,19 @@
         <v>1347351</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1335207</v>
+        <v>1335355</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1356383</v>
+        <v>1356806</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9798486253987777</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9710175248596474</v>
+        <v>0.9711250702773546</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9864174215929614</v>
+        <v>0.9867250832968731</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>14184</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7255</v>
+        <v>7339</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23780</v>
+        <v>23881</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0330039405098998</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01688067506685209</v>
+        <v>0.01707616878343066</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0553348202417685</v>
+        <v>0.05556953176124486</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -4065,19 +4065,19 @@
         <v>14823</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8255</v>
+        <v>8646</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24270</v>
+        <v>26466</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03436431246235611</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01913855738716265</v>
+        <v>0.02004293391055518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05626415724380075</v>
+        <v>0.06135526835280764</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -4086,19 +4086,19 @@
         <v>29007</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18711</v>
+        <v>19075</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41955</v>
+        <v>40727</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03368538862484968</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02172945717295977</v>
+        <v>0.02215128292177653</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04872266660106866</v>
+        <v>0.04729624570673412</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>415570</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>405974</v>
+        <v>405873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>422499</v>
+        <v>422415</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9669960594901001</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9446651797582317</v>
+        <v>0.9444304682387554</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9831193249331479</v>
+        <v>0.9829238312165693</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>391</v>
@@ -4136,19 +4136,19 @@
         <v>416529</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>407082</v>
+        <v>404886</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>423097</v>
+        <v>422706</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9656356875376438</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9437358427561989</v>
+        <v>0.9386447316471909</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9808614426128374</v>
+        <v>0.9799570660894448</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>776</v>
@@ -4157,19 +4157,19 @@
         <v>832100</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>819152</v>
+        <v>820380</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>842396</v>
+        <v>842032</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9663146113751503</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9512773333989314</v>
+        <v>0.9527037542932658</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9782705428270403</v>
+        <v>0.9778487170782235</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>76062</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60136</v>
+        <v>59992</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94716</v>
+        <v>94497</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02876193297390952</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02273996480461873</v>
+        <v>0.0226855181931046</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03581578251111361</v>
+        <v>0.03573293922852402</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -4282,19 +4282,19 @@
         <v>76400</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59495</v>
+        <v>59608</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95734</v>
+        <v>96222</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02675331088949965</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02083375660119853</v>
+        <v>0.02087308595780751</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03352369348631837</v>
+        <v>0.03369437944979668</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>143</v>
@@ -4303,19 +4303,19 @@
         <v>152462</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128587</v>
+        <v>127772</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>180064</v>
+        <v>176779</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02771905971088584</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02337850897248928</v>
+        <v>0.02323029085881958</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03273740690737555</v>
+        <v>0.03214027391428937</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>2568464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2549810</v>
+        <v>2550029</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2584390</v>
+        <v>2584534</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9712380670260905</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9641842174888864</v>
+        <v>0.9642670607714759</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9772600351953812</v>
+        <v>0.9773144818068954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2646</v>
@@ -4353,19 +4353,19 @@
         <v>2779317</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2759983</v>
+        <v>2759495</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2796222</v>
+        <v>2796109</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9732466891105004</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9664763065136818</v>
+        <v>0.9663056205502035</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9791662433988015</v>
+        <v>0.979126914042193</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5085</v>
@@ -4374,19 +4374,19 @@
         <v>5347781</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5320179</v>
+        <v>5323464</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5371656</v>
+        <v>5372471</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9722809402891142</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9672625930926244</v>
+        <v>0.9678597260857107</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9766214910275107</v>
+        <v>0.9767697091411807</v>
       </c>
     </row>
     <row r="18">
